--- a/Data/Bioenergy quantification.xlsx
+++ b/Data/Bioenergy quantification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\PICs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098CFFEC-F751-4B60-B7DC-DD88F648338D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8931D6CB-A898-4AE5-8EDD-F24D1769F31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bioenergy quantification" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Country</t>
   </si>
@@ -256,6 +256,44 @@
 •	A few trials tried to blend coconut oil with diesel and kerosene, but it was not sufficiently cheaper than using diesel, and therefore was not an attractive option. 
 •	Small-scale biogas digesters worked over 30 years, but the problems associated with operation and maintenance was high compared to the energy gained. The produced biogas was used mainly for cooking and the digested materials were converted to fertilizer.
 •	In 1980s, due to the high oil price, it was decided to produce bioethanol to replace oil imports. This plan offered marginal economic profits and was abandoned.</t>
+  </si>
+  <si>
+    <t>•	Coconut oil: High
+•	Vegetable oil: High
+•	Biomass: High
+•	Biogas: Modest
+•	Algae: High</t>
+  </si>
+  <si>
+    <t>•	Tropical/subtropical forests, mostly moist broadleaf
+•	45.9% forested area, half of which is carbon-dense and has substantial biodiversity
+•	Strong environmental gradients due to different substrates and steep reliefs
+•	Logging has reduced forested areas from previous rainforest levels of 70%
+•	Studies suggest pilot bioenergy technologies such as those related to gasification are unideal – transesterification from algae triglycerides could widely replace diesel consumption</t>
+  </si>
+  <si>
+    <t>•	7% of renewable energy supply in 2016 was from biomass (direct source)
+•	95 million tons of coconut oil produced in 2019
+•	Biogas recovery services being developed in local industry
+•	Several gas-related equipment and machinery readily available in local market
+•	Coconut oil already being used, with plentiful pre-processing equipment for oils available
+•	Transesterification is cheap
+•	Vegetable oils and starch evaluated</t>
+  </si>
+  <si>
+    <t>•	Coconut oil: High
+•	Biomass: Moderate</t>
+  </si>
+  <si>
+    <t>•	Tropical rainforests
+•	Around 28.7% forested areas
+•	Logging industry limited
+•	Agricultural products include coconut, and vanilla</t>
+  </si>
+  <si>
+    <t>•	6% of renewable energy supply in 2018 was from biomass 
+•	Use of biomass in traditional household practices such as cooking
+•	Small polyculture farms with poorly structured approaches to dealing with waste</t>
   </si>
 </sst>
 </file>
@@ -1142,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1270,14 +1308,32 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1346,5 +1402,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>